--- a/Excel/ValetModelConfig.xlsx
+++ b/Excel/ValetModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>神兽</t>
   </si>
   <si>
-    <t>11002,13005</t>
+    <t>21002,13005</t>
   </si>
   <si>
     <t>AttrList</t>

--- a/Excel/ValetModelConfig.xlsx
+++ b/Excel/ValetModelConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>DefRate</t>
+  </si>
+  <si>
+    <t>RestorePercent</t>
   </si>
   <si>
     <t>AdvanceRate</t>
@@ -66,6 +69,12 @@
   </si>
   <si>
     <t>21002,13005</t>
+  </si>
+  <si>
+    <t>月灵</t>
+  </si>
+  <si>
+    <t>3002</t>
   </si>
   <si>
     <t>AttrList</t>
@@ -1036,10 +1045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1050,16 +1059,16 @@
     <col min="5" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.75" style="2" customWidth="1"/>
-    <col min="9" max="10" width="21.125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="20.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="46" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="9" max="11" width="21.125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="20.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="46" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -1072,8 +1081,9 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -1086,8 +1096,9 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1120,16 +1131,19 @@
       <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1158,50 +1172,56 @@
       <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:16">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6">
@@ -1211,7 +1231,7 @@
         <v>3004</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1228,14 +1248,17 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6"/>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6"/>
-      <c r="M6" s="2"/>
+      <c r="M6"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:12">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:13">
       <c r="C7">
         <v>2</v>
       </c>
@@ -1243,7 +1266,7 @@
         <v>3007</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1258,26 +1281,50 @@
         <v>100</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>15</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:12">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:12">
+      <c r="L7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:13">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3009</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:13">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1288,8 +1335,9 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:12">
+      <c r="M9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:13">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1300,8 +1348,9 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:12">
+      <c r="M10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:13">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1312,8 +1361,9 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:12">
+      <c r="M11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:13">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -1324,8 +1374,9 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:12">
+      <c r="M12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:13">
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1336,8 +1387,9 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:12">
+      <c r="M13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:13">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -1348,8 +1400,9 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:12">
+      <c r="M14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:13">
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -1360,8 +1413,9 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:12">
+      <c r="M15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:13">
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -1372,8 +1426,9 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:12">
+      <c r="M16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:13">
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1384,8 +1439,9 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:12">
+      <c r="M17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:13">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -1396,8 +1452,9 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:12">
+      <c r="M18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:13">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1406,10 +1463,11 @@
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
-      <c r="K19" s="4"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:12">
+      <c r="K19"/>
+      <c r="L19" s="4"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:13">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1420,8 +1478,9 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:12">
+      <c r="M20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:13">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1432,8 +1491,9 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:12">
+      <c r="M21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:13">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1444,8 +1504,9 @@
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:12">
+      <c r="M22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:13">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1456,8 +1517,9 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:12">
+      <c r="M23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:13">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1468,8 +1530,9 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:12">
+      <c r="M24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:13">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -1480,8 +1543,9 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:12">
+      <c r="M25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:13">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1492,8 +1556,9 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:12">
+      <c r="M26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:13">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1504,8 +1569,9 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:12">
+      <c r="M27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:13">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -1516,8 +1582,9 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:12">
+      <c r="M28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:13">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1528,8 +1595,9 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:12">
+      <c r="M29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:13">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1540,8 +1608,9 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:12">
+      <c r="M30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:13">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1552,8 +1621,9 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:11">
+      <c r="M31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:12">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1563,8 +1633,9 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:12">
+      <c r="L32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:13">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -1574,9 +1645,10 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:11">
+      <c r="L33"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:12">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -1586,8 +1658,9 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:12">
+      <c r="L34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:13">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -1598,8 +1671,9 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:12">
+      <c r="M35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:13">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -1610,8 +1684,9 @@
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:12">
+      <c r="M36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:13">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -1622,8 +1697,9 @@
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:12">
+      <c r="M37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:13">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -1634,8 +1710,9 @@
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:12">
+      <c r="M38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:13">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -1646,8 +1723,9 @@
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:12">
+      <c r="M39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:13">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -1658,8 +1736,9 @@
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:12">
+      <c r="M40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:13">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -1670,8 +1749,9 @@
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:12">
+      <c r="M41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:13">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -1682,8 +1762,9 @@
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:12">
+      <c r="M42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:13">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -1694,8 +1775,9 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:12">
+      <c r="M43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:13">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -1706,8 +1788,9 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:12">
+      <c r="M44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:13">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -1718,8 +1801,9 @@
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:12">
+      <c r="M45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:13">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -1730,8 +1814,9 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:12">
+      <c r="M46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:13">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -1742,8 +1827,9 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:12">
+      <c r="M47"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:13">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -1754,8 +1840,9 @@
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:12">
+      <c r="M48"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:13">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -1766,8 +1853,9 @@
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:12">
+      <c r="M49"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:13">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -1778,8 +1866,9 @@
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:12">
+      <c r="M50"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:13">
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -1790,8 +1879,9 @@
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:12">
+      <c r="M51"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="3:13">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -1802,8 +1892,9 @@
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:12">
+      <c r="M52"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="3:13">
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -1814,8 +1905,9 @@
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="3:12">
+      <c r="M53"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="3:13">
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -1826,10 +1918,11 @@
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
+      <c r="M54"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 J3 K3 L3 D4 G4 H4 J4 K4 L4 D5 F5 G5 H5 I5 J5 K5 L5 C3:C5 E4:E5 F3:F4 I3:I4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 J3 K3 L3 M3 D4 G4 H4 J4 K4 L4 M4 D5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5 E4:E5 F3:F4 I3:I4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1903,13 +1996,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1921,19 +2014,19 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1945,19 +2038,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/Excel/ValetModelConfig.xlsx
+++ b/Excel/ValetModelConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>ModelType</t>
   </si>
   <si>
     <t>SpeedRate</t>
@@ -1045,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1056,22 +1059,21 @@
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="2" customWidth="1"/>
-    <col min="9" max="11" width="21.125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="20.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="46" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="2" customWidth="1"/>
+    <col min="10" max="12" width="21.125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="20.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="46" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1082,11 +1084,11 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1097,8 +1099,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1134,16 +1137,19 @@
       <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:17">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1175,53 +1181,59 @@
       <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:17">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:18">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6">
@@ -1231,34 +1243,37 @@
         <v>3004</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2000</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
       </c>
       <c r="I6">
         <v>50</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6"/>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6"/>
-      <c r="N6" s="2"/>
+      <c r="N6"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:13">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="3:14">
       <c r="C7">
         <v>2</v>
       </c>
@@ -1266,32 +1281,35 @@
         <v>3007</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>50</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7"/>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:13">
+      <c r="M7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="3:14">
       <c r="C8">
         <v>3</v>
       </c>
@@ -1299,32 +1317,35 @@
         <v>3009</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <v>100</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>150</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>100</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:13">
+      <c r="M8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="3:14">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1336,8 +1357,9 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:13">
+      <c r="N9"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="3:14">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1349,8 +1371,9 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:13">
+      <c r="N10"/>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="3:14">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1362,8 +1385,9 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:13">
+      <c r="N11"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="3:14">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -1375,8 +1399,9 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:13">
+      <c r="N12"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="3:14">
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1388,8 +1413,9 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:13">
+      <c r="N13"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="3:14">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -1401,8 +1427,9 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:13">
+      <c r="N14"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="3:14">
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -1414,8 +1441,9 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:13">
+      <c r="N15"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="3:14">
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -1427,8 +1455,9 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:13">
+      <c r="N16"/>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:14">
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1440,8 +1469,9 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:13">
+      <c r="N17"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="3:14">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -1453,8 +1483,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:13">
+      <c r="N18"/>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="3:14">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1464,10 +1495,11 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19" s="4"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:13">
+      <c r="L19"/>
+      <c r="M19" s="4"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" ht="24" customHeight="1" spans="3:14">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1479,8 +1511,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:13">
+      <c r="N20"/>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="3:14">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1492,8 +1525,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:13">
+      <c r="N21"/>
+    </row>
+    <row r="22" ht="24" customHeight="1" spans="3:14">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1505,8 +1539,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:13">
+      <c r="N22"/>
+    </row>
+    <row r="23" ht="24" customHeight="1" spans="3:14">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1518,8 +1553,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:13">
+      <c r="N23"/>
+    </row>
+    <row r="24" ht="24" customHeight="1" spans="3:14">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1531,8 +1567,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:13">
+      <c r="N24"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="3:14">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -1544,8 +1581,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:13">
+      <c r="N25"/>
+    </row>
+    <row r="26" ht="24" customHeight="1" spans="3:14">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1557,8 +1595,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:13">
+      <c r="N26"/>
+    </row>
+    <row r="27" ht="24" customHeight="1" spans="3:14">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1570,8 +1609,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:13">
+      <c r="N27"/>
+    </row>
+    <row r="28" ht="24" customHeight="1" spans="3:14">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -1583,8 +1623,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:13">
+      <c r="N28"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" spans="3:14">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1596,8 +1637,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:13">
+      <c r="N29"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="3:14">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1609,8 +1651,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:13">
+      <c r="N30"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" spans="3:14">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1622,8 +1665,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:12">
+      <c r="N31"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="3:13">
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1634,8 +1678,9 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:13">
+      <c r="M32"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="3:14">
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -1646,9 +1691,10 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:12">
+      <c r="M33"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -1659,8 +1705,9 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:13">
+      <c r="M34"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="3:14">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -1672,8 +1719,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:13">
+      <c r="N35"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="3:14">
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -1685,8 +1733,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:13">
+      <c r="N36"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="3:14">
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -1698,8 +1747,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:13">
+      <c r="N37"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="3:14">
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -1711,8 +1761,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:13">
+      <c r="N38"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="3:14">
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -1724,8 +1775,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:13">
+      <c r="N39"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="3:14">
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -1737,8 +1789,9 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:13">
+      <c r="N40"/>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="3:14">
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -1750,8 +1803,9 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:13">
+      <c r="N41"/>
+    </row>
+    <row r="42" ht="24" customHeight="1" spans="3:14">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -1763,8 +1817,9 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:13">
+      <c r="N42"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" spans="3:14">
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -1776,8 +1831,9 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:13">
+      <c r="N43"/>
+    </row>
+    <row r="44" ht="24" customHeight="1" spans="3:14">
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -1789,8 +1845,9 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:13">
+      <c r="N44"/>
+    </row>
+    <row r="45" ht="24" customHeight="1" spans="3:14">
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -1802,8 +1859,9 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:13">
+      <c r="N45"/>
+    </row>
+    <row r="46" ht="24" customHeight="1" spans="3:14">
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -1815,8 +1873,9 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:13">
+      <c r="N46"/>
+    </row>
+    <row r="47" ht="24" customHeight="1" spans="3:14">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -1828,8 +1887,9 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:13">
+      <c r="N47"/>
+    </row>
+    <row r="48" ht="24" customHeight="1" spans="3:14">
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -1841,8 +1901,9 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:13">
+      <c r="N48"/>
+    </row>
+    <row r="49" ht="24" customHeight="1" spans="3:14">
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -1854,8 +1915,9 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:13">
+      <c r="N49"/>
+    </row>
+    <row r="50" ht="24" customHeight="1" spans="3:14">
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -1867,8 +1929,9 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:13">
+      <c r="N50"/>
+    </row>
+    <row r="51" ht="24" customHeight="1" spans="3:14">
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -1880,8 +1943,9 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:13">
+      <c r="N51"/>
+    </row>
+    <row r="52" ht="24" customHeight="1" spans="3:14">
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -1893,8 +1957,9 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:13">
+      <c r="N52"/>
+    </row>
+    <row r="53" ht="24" customHeight="1" spans="3:14">
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -1906,8 +1971,9 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="3:13">
+      <c r="N53"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="3:14">
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -1919,10 +1985,11 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
+      <c r="N54"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 G3 H3 J3 K3 L3 M3 D4 G4 H4 J4 K4 L4 M4 D5 F5 G5 H5 I5 J5 K5 L5 M5 C3:C5 E4:E5 F3:F4 I3:I4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 H3 I3 K3 L3 M3 N3 D4 F4 H4 I4 K4 L4 M4 N4 D5 F5 G5 H5 I5 J5 K5 L5 M5 N5 C3:C5 E4:E5 G3:G4 J3:J4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -1996,13 +2063,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2014,19 +2081,19 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2038,19 +2105,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>

--- a/Excel/ValetModelConfig.xlsx
+++ b/Excel/ValetModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>6000</v>

--- a/Excel/ValetModelConfig.xlsx
+++ b/Excel/ValetModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>骷髅</t>
+  </si>
+  <si>
+    <t>11001</t>
   </si>
   <si>
     <t>神兽</t>
@@ -719,15 +722,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1051,7 +1060,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1266,7 +1275,9 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6"/>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="N6"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1281,7 +1292,7 @@
         <v>3007</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1304,8 +1315,8 @@
       <c r="L7">
         <v>15</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>18</v>
+      <c r="M7" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="N7"/>
     </row>
@@ -1317,7 +1328,7 @@
         <v>3009</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1340,8 +1351,8 @@
       <c r="L8">
         <v>50</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>20</v>
+      <c r="M8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="N8"/>
     </row>
@@ -1496,7 +1507,7 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="5"/>
       <c r="N19"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="3:14">
@@ -1692,7 +1703,7 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:13">
       <c r="C34"/>
@@ -2063,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -2087,10 +2098,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -2114,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>

--- a/Excel/ValetModelConfig.xlsx
+++ b/Excel/ValetModelConfig.xlsx
@@ -10,7 +10,20 @@
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
     <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1060,7 +1073,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1261,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1301,7 +1314,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1337,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="I8">
         <v>150</v>
@@ -1346,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>50</v>

--- a/Excel/ValetModelConfig.xlsx
+++ b/Excel/ValetModelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I6">
         <v>50</v>
@@ -1314,7 +1314,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="I7">
         <v>50</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="I8">
         <v>150</v>
@@ -1359,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>50</v>
